--- a/medicine/Enfance/Luke_Pearson/Luke_Pearson.xlsx
+++ b/medicine/Enfance/Luke_Pearson/Luke_Pearson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Luke Pearson est un illustrateur et auteur de bande dessinée britannique né en 1987.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,16 +553,20 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Hilda
-La série Hilda est l'oeuvre principale de Luke Pearson. Les trois premiers titres ont été édités chez Nobrow, repris par Casterman
+          <t>Série Hilda</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La série Hilda est l'oeuvre principale de Luke Pearson. Les trois premiers titres ont été édités chez Nobrow, repris par Casterman
 Hilda et le troll, 2012
 Hilda et le géant de minuit, 2011 (initialement paru sous le titre Hilda et le géant de la nuit chez Nobrow)
 Hilda et la parade des oiseaux, 2012
 Hilda et le chien noir, 2014 Sélection Jeunesse Festival d'Angoulême 2015 
 Hilda et la forêt de pierres, 2016
 En 2018, Hilda est adapté en série animée par Netflix. La saison 3 est sortie en 2023. 
-Autres albums
-Loin des yeux, Nobrow, 2013</t>
+</t>
         </is>
       </c>
     </row>
@@ -573,51 +591,126 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Albums parus en français</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres albums</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Loin des yeux, Nobrow, 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Luke_Pearson</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Luke_Pearson</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Série animée Hilda</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Saison 1: 21 septembre 2018.
 Saison 2: 14 décembre 2020
 Saison 3: 18 septembre 2023
 - Fin de la série - 
-Cause de la fin de la série Hilda
-Luke Pearson déclare déclare dans un tweet que la saison 3 de Hilda marque la fin de la série[1].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Luke_Pearson</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Luke_Pearson</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Série animée Hilda</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cause de la fin de la série Hilda</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Luke Pearson déclare déclare dans un tweet que la saison 3 de Hilda marque la fin de la série.
 Il explique qu'excepté les médias et les fans de la bande dessinée, quasiment personne ne la regarde. Il remercie également Netflix d'avoir accepté une dernière saison pour terminer la série.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Luke_Pearson</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Luke_Pearson</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>2013 :  Prix Peng ! de la meilleure bande dessinée européenne pour Hilda et le Géant de la nuit
 2014 :
- Pépite de la Bande dessinée / Manga 2014, décerné par le Salon du livre et de la presse jeunesse de Montreuil (Seine-Saint-Denis) pour Hilda et le chien noir [2]
+ Pépite de la Bande dessinée / Manga 2014, décerné par le Salon du livre et de la presse jeunesse de Montreuil (Seine-Saint-Denis) pour Hilda et le chien noir 
  Prix Max et Moritz de la meilleure bande dessinée pour enfants avec Hilda et le Géant de minuit</t>
         </is>
       </c>
